--- a/medicine/Pharmacie/Tideglusib/Tideglusib.xlsx
+++ b/medicine/Pharmacie/Tideglusib/Tideglusib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tideglusib, inhibiteur de la GSK-3 (en) (glycogène synthase kinase-3)[1], est un médicament initialement destiné à lutter contre les symptômes de la
-maladie d’Alzheimer[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tideglusib, inhibiteur de la GSK-3 (en) (glycogène synthase kinase-3), est un médicament initialement destiné à lutter contre les symptômes de la
+maladie d’Alzheimer.
 </t>
         </is>
       </c>
@@ -512,13 +524,85 @@
           <t>Applications potentielles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tideglusib est à l'étude pour de multiples applications :
-Régénération des dents cariées
-Il favoriserait les mécanismes de réparation des dents qui favorisent la dentine[1]. Le Tideglusib à la particularité de stimuler la régénération des dents abimées par les caries[4]. Paul Sharpe, professeur et chercheur du King’s College de Londres, est le principal auteur de l'étude publiée dans le magazine en ligne Scientific Reports en janvier 2017[4],[5].
-Maladie d'Alzheimer
-Il a été testé en essai clinique phase II pour la Maladie d'Alzheimer[1],[6]. D'autres maladies neurodégénératives pourraient être concernées comme la paralysie supranucléaire progressive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tideglusib</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tideglusib</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Applications potentielles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régénération des dents cariées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il favoriserait les mécanismes de réparation des dents qui favorisent la dentine. Le Tideglusib à la particularité de stimuler la régénération des dents abimées par les caries. Paul Sharpe, professeur et chercheur du King’s College de Londres, est le principal auteur de l'étude publiée dans le magazine en ligne Scientific Reports en janvier 2017,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tideglusib</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tideglusib</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Applications potentielles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Maladie d'Alzheimer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été testé en essai clinique phase II pour la Maladie d'Alzheimer,. D'autres maladies neurodégénératives pourraient être concernées comme la paralysie supranucléaire progressive.
 </t>
         </is>
       </c>
